--- a/docs/oblig3-charts.xlsx
+++ b/docs/oblig3-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A84D3-4989-4ED0-81BF-B620F2D7D663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146BB36-AB78-47ED-A80F-8BB0EEEC4252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
+    <workbookView xWindow="5460" yWindow="1545" windowWidth="22290" windowHeight="15600" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,43 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>Sequential-No-Transition</t>
-  </si>
-  <si>
-    <t>Sequential-transition-B</t>
-  </si>
-  <si>
-    <t>Sequential-Transition-B</t>
-  </si>
-  <si>
-    <t>Parallell-No-Transition</t>
-  </si>
-  <si>
-    <t>Parallell-Transition-A</t>
-  </si>
-  <si>
-    <t>Parallell-Transition-B</t>
-  </si>
-  <si>
-    <t>Parallel-Transition-B</t>
-  </si>
-  <si>
-    <t>Sequentuial-No-Transition</t>
-  </si>
-  <si>
-    <t>Sequential-Transition-A</t>
-  </si>
-  <si>
-    <t>Parallel-No-Transition</t>
-  </si>
-  <si>
-    <t>Parallel-transition-A</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Sequential</t>
   </si>
@@ -83,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +80,12 @@
       <color rgb="FFA9B7C6"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -159,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -259,6 +232,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$R$2:$R$5</c:f>
@@ -313,6 +307,27 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$S$2:$S$5</c:f>
@@ -381,13 +396,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Matrix</a:t>
+                  <a:t>n</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> size</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -395,8 +405,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45806205112390541"/>
-              <c:y val="0.83638652138957126"/>
+              <c:x val="0.4580621296047549"/>
+              <c:y val="0.87582999516161975"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -529,8 +539,522 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.553976507935442E-2"/>
-              <c:y val="0.36968198716980144"/>
+              <c:x val="5.2796245212051686E-3"/>
+              <c:y val="0.36968196912532247"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011122144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.185482998278712E-2"/>
+          <c:y val="0.13147127796904282"/>
+          <c:w val="0.91714701317657776"/>
+          <c:h val="0.69248289651479134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$2:$AC$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D08-4293-B394-51A3A51728F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$2:$AD$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D08-4293-B394-51A3A51728F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1011122144"/>
+        <c:axId val="1011125056"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1011122144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4580621296047549"/>
+              <c:y val="0.87582999516161975"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1011125056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1011125056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.2796245212051686E-3"/>
+              <c:y val="0.36968196912532247"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -720,7 +1244,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1269,6 +2349,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>483393</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145257</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16392EA7-1FB9-49DC-B80F-CD2705F02EC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1574,84 +2692,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76534C-1665-44F1-8873-2DAF09542237}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.28515625" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="30.75" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
+      <c r="T1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8" t="s">
+        <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
+      <c r="AD1" s="8" t="s">
+        <v>1</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="8"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE1" s="8"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="I2">
-        <v>20.87</v>
-      </c>
-      <c r="J2">
-        <v>9.11</v>
-      </c>
-      <c r="K2">
-        <v>15.05</v>
-      </c>
-      <c r="L2">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="M2">
-        <v>25.71</v>
-      </c>
       <c r="Q2" s="9">
         <v>2000000</v>
       </c>
@@ -1662,33 +2753,22 @@
         <v>1.0660000000000001</v>
       </c>
       <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="AC2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AE2" s="9"/>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>8.48</v>
-      </c>
-      <c r="I3">
-        <v>22.21</v>
-      </c>
-      <c r="J3">
-        <v>6.67</v>
-      </c>
-      <c r="K3">
-        <v>6.54</v>
-      </c>
-      <c r="L3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M3">
-        <v>5.71</v>
-      </c>
       <c r="Q3" s="9">
         <v>20000000</v>
       </c>
@@ -1699,33 +2779,22 @@
         <v>1.1240000000000001</v>
       </c>
       <c r="T3" s="9"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB3" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.75" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="G4">
-        <v>500</v>
-      </c>
-      <c r="H4">
-        <v>169.78</v>
-      </c>
-      <c r="I4">
-        <v>271.74</v>
-      </c>
-      <c r="J4">
-        <v>110.03</v>
-      </c>
-      <c r="K4">
-        <v>55.27</v>
-      </c>
-      <c r="L4">
-        <v>133.74</v>
-      </c>
-      <c r="M4">
-        <v>26.44</v>
-      </c>
       <c r="Q4" s="9">
         <v>200000000</v>
       </c>
@@ -1736,33 +2805,22 @@
         <v>1.63</v>
       </c>
       <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB4" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="9">
+        <v>0.252</v>
+      </c>
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31" ht="15.75" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
-        <v>1912.11</v>
-      </c>
-      <c r="I5">
-        <v>15492.06</v>
-      </c>
-      <c r="J5">
-        <v>993.74</v>
-      </c>
-      <c r="K5">
-        <v>1930.47</v>
-      </c>
-      <c r="L5">
-        <v>7587.74</v>
-      </c>
-      <c r="M5">
-        <v>193.53</v>
-      </c>
       <c r="Q5" s="9">
         <v>2000000000</v>
       </c>
@@ -1773,98 +2831,108 @@
         <v>1.71</v>
       </c>
       <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="AB5" s="9">
+        <v>2000000000</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1872,7 +2940,7 @@
       <c r="G21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1880,7 +2948,7 @@
       <c r="G22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1888,7 +2956,7 @@
       <c r="G23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1896,19 +2964,19 @@
       <c r="G24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1916,7 +2984,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1924,7 +2992,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1932,7 +3000,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1940,7 +3008,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1948,7 +3016,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1956,142 +3024,74 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="6"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="2">
-        <v>100</v>
-      </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="I46" s="2">
-        <v>0.33</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="L46" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="2">
-        <v>200</v>
-      </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="I47" s="2">
-        <v>1.48</v>
-      </c>
-      <c r="J47" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="L47" s="2">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="2">
-        <v>500</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>6.42</v>
-      </c>
-      <c r="J48" s="2">
-        <v>10.27</v>
-      </c>
-      <c r="K48" s="2">
-        <v>4.16</v>
-      </c>
-      <c r="L48" s="2">
-        <v>2.09</v>
-      </c>
-      <c r="M48" s="2">
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="J49" s="2">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="K49" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="L49" s="2">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="M49" s="2">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2099,7 +3099,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2107,7 +3107,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>

--- a/docs/oblig3-charts.xlsx
+++ b/docs/oblig3-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0146BB36-AB78-47ED-A80F-8BB0EEEC4252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB98C80-BACA-4BCD-9BB4-1A4C6D4AFEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1545" windowWidth="22290" windowHeight="15600" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
+    <workbookView xWindow="5550" yWindow="1740" windowWidth="22290" windowHeight="15600" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,16 +335,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0660000000000001</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1240000000000001</c:v>
+                  <c:v>1.048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.63</c:v>
+                  <c:v>1.5780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.71</c:v>
+                  <c:v>1.659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,16 +849,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.71299999999999997</c:v>
+                  <c:v>0.57099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32100000000000001</c:v>
+                  <c:v>0.53300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.252</c:v>
+                  <c:v>0.55800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11</c:v>
+                  <c:v>0.439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76534C-1665-44F1-8873-2DAF09542237}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="9">
-        <v>1.0660000000000001</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="T2" s="9"/>
       <c r="AB2" s="9">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="AD2" s="10">
-        <v>0.71299999999999997</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="AE2" s="9"/>
     </row>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>1.1240000000000001</v>
+        <v>1.048</v>
       </c>
       <c r="T3" s="9"/>
       <c r="AB3" s="9">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="AD3" s="10">
-        <v>0.32100000000000001</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="AE3" s="9"/>
     </row>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9">
-        <v>1.63</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="T4" s="9"/>
       <c r="AB4" s="9">
@@ -2812,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="9">
-        <v>0.252</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="AE4" s="9"/>
     </row>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9">
-        <v>1.71</v>
+        <v>1.659</v>
       </c>
       <c r="T5" s="9"/>
       <c r="AB5" s="9">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="9">
-        <v>0.11</v>
+        <v>0.439</v>
       </c>
       <c r="AE5" s="9"/>
     </row>

--- a/docs/oblig3-charts.xlsx
+++ b/docs/oblig3-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leifh\Desktop\Skole\Uio\IN4030 - Effektiv paralellprogrammering\IN4030-oblig-3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB98C80-BACA-4BCD-9BB4-1A4C6D4AFEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0139C19-FDA2-4E8F-9A7F-DA5C4CE19A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="1740" windowWidth="22290" windowHeight="15600" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
+    <workbookView xWindow="1740" yWindow="3652" windowWidth="18562" windowHeight="11768" xr2:uid="{5494EFEF-99AA-459E-8E27-68646FA5F378}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -335,16 +335,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.79300000000000004</c:v>
+                  <c:v>0.88900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.048</c:v>
+                  <c:v>1.137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5780000000000001</c:v>
+                  <c:v>1.7230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.659</c:v>
+                  <c:v>1.746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,16 +849,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.57099999999999995</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53300000000000003</c:v>
+                  <c:v>0.64900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55800000000000005</c:v>
+                  <c:v>2.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.439</c:v>
+                  <c:v>3.024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,22 +2694,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F76534C-1665-44F1-8873-2DAF09542237}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" topLeftCell="M4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="19.59765625" customWidth="1"/>
+    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.265625" customWidth="1"/>
+    <col min="19" max="19" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.3984375" customWidth="1"/>
+    <col min="29" max="29" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="30.75" thickBot="1">
+    <row r="1" spans="1:31" ht="28.15" thickBot="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="AE1" s="8"/>
     </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1">
+    <row r="2" spans="1:31" ht="14.65" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="S2" s="9">
-        <v>0.79300000000000004</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="T2" s="9"/>
       <c r="AB2" s="9">
@@ -2760,11 +2760,11 @@
         <v>1</v>
       </c>
       <c r="AD2" s="10">
-        <v>0.57099999999999995</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="AE2" s="9"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1">
+    <row r="3" spans="1:31" ht="14.65" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2776,7 +2776,7 @@
         <v>1</v>
       </c>
       <c r="S3" s="9">
-        <v>1.048</v>
+        <v>1.137</v>
       </c>
       <c r="T3" s="9"/>
       <c r="AB3" s="9">
@@ -2786,11 +2786,11 @@
         <v>1</v>
       </c>
       <c r="AD3" s="10">
-        <v>0.53300000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="AE3" s="9"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75" thickBot="1">
+    <row r="4" spans="1:31" ht="14.65" thickBot="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="S4" s="9">
-        <v>1.5780000000000001</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="T4" s="9"/>
       <c r="AB4" s="9">
@@ -2812,11 +2812,11 @@
         <v>1</v>
       </c>
       <c r="AD4" s="9">
-        <v>0.55800000000000005</v>
+        <v>2.36</v>
       </c>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1">
+    <row r="5" spans="1:31" ht="14.65" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2828,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="9">
-        <v>1.659</v>
+        <v>1.746</v>
       </c>
       <c r="T5" s="9"/>
       <c r="AB5" s="9">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="9">
-        <v>0.439</v>
+        <v>3.024</v>
       </c>
       <c r="AE5" s="9"/>
     </row>
